--- a/Financials/Yearly/BAP_YR_FIN.xlsx
+++ b/Financials/Yearly/BAP_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFA9075-423A-4BDE-AE51-EAFC8D1A2858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BAP" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BAP</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,34 +741,34 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3341100</v>
+        <v>3326300</v>
       </c>
       <c r="E8" s="3">
-        <v>3263100</v>
+        <v>3248600</v>
       </c>
       <c r="F8" s="3">
-        <v>2963500</v>
+        <v>2950400</v>
       </c>
       <c r="G8" s="3">
-        <v>2605100</v>
+        <v>2593600</v>
       </c>
       <c r="H8" s="3">
-        <v>2146400</v>
+        <v>2136900</v>
       </c>
       <c r="I8" s="3">
-        <v>1845100</v>
+        <v>1836900</v>
       </c>
       <c r="J8" s="3">
-        <v>556600</v>
+        <v>554200</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +795,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +822,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,34 +916,34 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-127200</v>
+        <v>-126600</v>
       </c>
       <c r="E15" s="3">
-        <v>-123300</v>
+        <v>-122700</v>
       </c>
       <c r="F15" s="3">
-        <v>-121400</v>
+        <v>-120900</v>
       </c>
       <c r="G15" s="3">
-        <v>-131400</v>
+        <v>-130800</v>
       </c>
       <c r="H15" s="3">
-        <v>-136100</v>
+        <v>-135500</v>
       </c>
       <c r="I15" s="3">
-        <v>-119500</v>
+        <v>-119000</v>
       </c>
       <c r="J15" s="3">
-        <v>-28400</v>
+        <v>-28300</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1438200</v>
+        <v>1431900</v>
       </c>
       <c r="E17" s="3">
-        <v>1423600</v>
+        <v>1417300</v>
       </c>
       <c r="F17" s="3">
-        <v>1335100</v>
+        <v>1329200</v>
       </c>
       <c r="G17" s="3">
-        <v>1183400</v>
+        <v>1178100</v>
       </c>
       <c r="H17" s="3">
-        <v>1013800</v>
+        <v>1009300</v>
       </c>
       <c r="I17" s="3">
-        <v>855700</v>
+        <v>851900</v>
       </c>
       <c r="J17" s="3">
-        <v>226100</v>
+        <v>225100</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1902900</v>
+        <v>1894400</v>
       </c>
       <c r="E18" s="3">
-        <v>1839400</v>
+        <v>1831300</v>
       </c>
       <c r="F18" s="3">
-        <v>1628400</v>
+        <v>1621200</v>
       </c>
       <c r="G18" s="3">
-        <v>1421800</v>
+        <v>1415500</v>
       </c>
       <c r="H18" s="3">
-        <v>1132700</v>
+        <v>1127700</v>
       </c>
       <c r="I18" s="3">
-        <v>989400</v>
+        <v>985000</v>
       </c>
       <c r="J18" s="3">
-        <v>330500</v>
+        <v>329100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,61 +1020,61 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-214300</v>
+        <v>-213300</v>
       </c>
       <c r="E20" s="3">
-        <v>-357800</v>
+        <v>-356300</v>
       </c>
       <c r="F20" s="3">
-        <v>-307600</v>
+        <v>-306200</v>
       </c>
       <c r="G20" s="3">
-        <v>-395100</v>
+        <v>-393400</v>
       </c>
       <c r="H20" s="3">
-        <v>-426100</v>
+        <v>-424200</v>
       </c>
       <c r="I20" s="3">
-        <v>-143100</v>
+        <v>-142400</v>
       </c>
       <c r="J20" s="3">
-        <v>-47500</v>
+        <v>-47300</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1817800</v>
+        <v>1809700</v>
       </c>
       <c r="E21" s="3">
-        <v>1604900</v>
+        <v>1597800</v>
       </c>
       <c r="F21" s="3">
-        <v>1440900</v>
+        <v>1434500</v>
       </c>
       <c r="G21" s="3">
-        <v>1158100</v>
+        <v>1152900</v>
       </c>
       <c r="H21" s="3">
-        <v>806000</v>
+        <v>802500</v>
       </c>
       <c r="I21" s="3">
-        <v>879200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>311400</v>
+        <v>875300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,61 +1101,61 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1688600</v>
+        <v>1681100</v>
       </c>
       <c r="E23" s="3">
-        <v>1481600</v>
+        <v>1475000</v>
       </c>
       <c r="F23" s="3">
-        <v>1320800</v>
+        <v>1314900</v>
       </c>
       <c r="G23" s="3">
-        <v>1026600</v>
+        <v>1022100</v>
       </c>
       <c r="H23" s="3">
-        <v>706600</v>
+        <v>703400</v>
       </c>
       <c r="I23" s="3">
-        <v>846300</v>
+        <v>842600</v>
       </c>
       <c r="J23" s="3">
-        <v>283000</v>
+        <v>281700</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>422000</v>
+        <v>420100</v>
       </c>
       <c r="E24" s="3">
-        <v>388100</v>
+        <v>386400</v>
       </c>
       <c r="F24" s="3">
-        <v>362600</v>
+        <v>361000</v>
       </c>
       <c r="G24" s="3">
-        <v>293300</v>
+        <v>292000</v>
       </c>
       <c r="H24" s="3">
-        <v>234800</v>
+        <v>233800</v>
       </c>
       <c r="I24" s="3">
-        <v>200900</v>
+        <v>200000</v>
       </c>
       <c r="J24" s="3">
-        <v>63800</v>
+        <v>63500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1266600</v>
+        <v>1261000</v>
       </c>
       <c r="E26" s="3">
-        <v>1093400</v>
+        <v>1088600</v>
       </c>
       <c r="F26" s="3">
-        <v>958200</v>
+        <v>953900</v>
       </c>
       <c r="G26" s="3">
-        <v>733400</v>
+        <v>730100</v>
       </c>
       <c r="H26" s="3">
-        <v>471800</v>
+        <v>469700</v>
       </c>
       <c r="I26" s="3">
-        <v>645400</v>
+        <v>642600</v>
       </c>
       <c r="J26" s="3">
-        <v>219200</v>
+        <v>218300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1239400</v>
+        <v>1233900</v>
       </c>
       <c r="E27" s="3">
-        <v>1064500</v>
+        <v>1059800</v>
       </c>
       <c r="F27" s="3">
-        <v>936600</v>
+        <v>932500</v>
       </c>
       <c r="G27" s="3">
-        <v>723300</v>
+        <v>720100</v>
       </c>
       <c r="H27" s="3">
-        <v>465900</v>
+        <v>463900</v>
       </c>
       <c r="I27" s="3">
-        <v>629900</v>
+        <v>627100</v>
       </c>
       <c r="J27" s="3">
-        <v>214800</v>
+        <v>213900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>214300</v>
+        <v>213300</v>
       </c>
       <c r="E32" s="3">
-        <v>357800</v>
+        <v>356300</v>
       </c>
       <c r="F32" s="3">
-        <v>307600</v>
+        <v>306200</v>
       </c>
       <c r="G32" s="3">
-        <v>395100</v>
+        <v>393400</v>
       </c>
       <c r="H32" s="3">
-        <v>426100</v>
+        <v>424200</v>
       </c>
       <c r="I32" s="3">
-        <v>143100</v>
+        <v>142400</v>
       </c>
       <c r="J32" s="3">
-        <v>47500</v>
+        <v>47300</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1239400</v>
+        <v>1233900</v>
       </c>
       <c r="E33" s="3">
-        <v>1064500</v>
+        <v>1059800</v>
       </c>
       <c r="F33" s="3">
-        <v>936600</v>
+        <v>932500</v>
       </c>
       <c r="G33" s="3">
-        <v>723300</v>
+        <v>720100</v>
       </c>
       <c r="H33" s="3">
-        <v>465900</v>
+        <v>463900</v>
       </c>
       <c r="I33" s="3">
-        <v>629900</v>
+        <v>627100</v>
       </c>
       <c r="J33" s="3">
-        <v>214800</v>
+        <v>213900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1239400</v>
+        <v>1233900</v>
       </c>
       <c r="E35" s="3">
-        <v>1064500</v>
+        <v>1059800</v>
       </c>
       <c r="F35" s="3">
-        <v>936600</v>
+        <v>932500</v>
       </c>
       <c r="G35" s="3">
-        <v>723300</v>
+        <v>720100</v>
       </c>
       <c r="H35" s="3">
-        <v>465900</v>
+        <v>463900</v>
       </c>
       <c r="I35" s="3">
-        <v>629900</v>
+        <v>627100</v>
       </c>
       <c r="J35" s="3">
-        <v>214800</v>
+        <v>213900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,61 +1510,61 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7033700</v>
+        <v>7002600</v>
       </c>
       <c r="E41" s="3">
-        <v>5041800</v>
+        <v>5019500</v>
       </c>
       <c r="F41" s="3">
-        <v>6782200</v>
+        <v>6752200</v>
       </c>
       <c r="G41" s="3">
-        <v>14297100</v>
+        <v>14233800</v>
       </c>
       <c r="H41" s="3">
-        <v>6591800</v>
+        <v>6562600</v>
       </c>
       <c r="I41" s="3">
-        <v>6409800</v>
+        <v>6381500</v>
       </c>
       <c r="J41" s="3">
-        <v>331500</v>
+        <v>330100</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3484800</v>
+        <v>3681000</v>
       </c>
       <c r="E42" s="3">
-        <v>4523600</v>
+        <v>4787800</v>
       </c>
       <c r="F42" s="3">
-        <v>1150600</v>
+        <v>4470600</v>
       </c>
       <c r="G42" s="3">
-        <v>2790300</v>
+        <v>2778000</v>
       </c>
       <c r="H42" s="3">
-        <v>1073500</v>
+        <v>1068700</v>
       </c>
       <c r="I42" s="3">
-        <v>3667200</v>
+        <v>3651000</v>
       </c>
       <c r="J42" s="3">
-        <v>1362500</v>
+        <v>1356500</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1591,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,7 +1618,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1645,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1637,88 +1672,88 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>214700</v>
+        <v>213800</v>
       </c>
       <c r="E47" s="3">
-        <v>211900</v>
+        <v>211000</v>
       </c>
       <c r="F47" s="3">
-        <v>191000</v>
+        <v>190200</v>
       </c>
       <c r="G47" s="3">
-        <v>49200</v>
+        <v>49000</v>
       </c>
       <c r="H47" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="I47" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="J47" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>596200</v>
+        <v>593600</v>
       </c>
       <c r="E48" s="3">
-        <v>622900</v>
+        <v>620200</v>
       </c>
       <c r="F48" s="3">
-        <v>1140100</v>
+        <v>631000</v>
       </c>
       <c r="G48" s="3">
-        <v>1265700</v>
+        <v>1260100</v>
       </c>
       <c r="H48" s="3">
-        <v>1429300</v>
+        <v>1423000</v>
       </c>
       <c r="I48" s="3">
-        <v>789400</v>
+        <v>785900</v>
       </c>
       <c r="J48" s="3">
-        <v>143100</v>
+        <v>142500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>599400</v>
+        <v>596700</v>
       </c>
       <c r="E49" s="3">
-        <v>593900</v>
+        <v>591200</v>
       </c>
       <c r="F49" s="3">
-        <v>648700</v>
+        <v>573200</v>
       </c>
       <c r="G49" s="3">
-        <v>1002800</v>
+        <v>998400</v>
       </c>
       <c r="H49" s="3">
-        <v>751900</v>
+        <v>748600</v>
       </c>
       <c r="I49" s="3">
-        <v>816800</v>
+        <v>813200</v>
       </c>
       <c r="J49" s="3">
-        <v>137300</v>
+        <v>136700</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>145400</v>
+        <v>144800</v>
       </c>
       <c r="E52" s="3">
-        <v>153300</v>
+        <v>152600</v>
       </c>
       <c r="F52" s="3">
-        <v>158900</v>
+        <v>158200</v>
       </c>
       <c r="G52" s="3">
-        <v>286100</v>
+        <v>284800</v>
       </c>
       <c r="H52" s="3">
-        <v>103200</v>
+        <v>102700</v>
       </c>
       <c r="I52" s="3">
-        <v>87500</v>
+        <v>87200</v>
       </c>
       <c r="J52" s="3">
-        <v>29100</v>
+        <v>29000</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51634300</v>
+        <v>51405900</v>
       </c>
       <c r="E54" s="3">
-        <v>47382700</v>
+        <v>47173000</v>
       </c>
       <c r="F54" s="3">
-        <v>47093400</v>
+        <v>46885100</v>
       </c>
       <c r="G54" s="3">
-        <v>40840000</v>
+        <v>40659300</v>
       </c>
       <c r="H54" s="3">
-        <v>34558000</v>
+        <v>34405100</v>
       </c>
       <c r="I54" s="3">
-        <v>31510500</v>
+        <v>31371000</v>
       </c>
       <c r="J54" s="3">
-        <v>9303100</v>
+        <v>9261900</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,34 +1914,34 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4063500</v>
+        <v>636500</v>
       </c>
       <c r="E57" s="3">
-        <v>4582100</v>
+        <v>524900</v>
       </c>
       <c r="F57" s="3">
-        <v>4847700</v>
+        <v>465200</v>
       </c>
       <c r="G57" s="3">
-        <v>6016400</v>
+        <v>5989800</v>
       </c>
       <c r="H57" s="3">
-        <v>1388200</v>
+        <v>1382000</v>
       </c>
       <c r="I57" s="3">
-        <v>1586900</v>
+        <v>1579900</v>
       </c>
       <c r="J57" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1933,34 +1968,34 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>339200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>292000</v>
       </c>
       <c r="F59" s="3">
-        <v>115900</v>
+        <v>297900</v>
       </c>
       <c r="G59" s="3">
-        <v>229600</v>
+        <v>228600</v>
       </c>
       <c r="H59" s="3">
-        <v>160000</v>
+        <v>159300</v>
       </c>
       <c r="I59" s="3">
-        <v>121900</v>
+        <v>121300</v>
       </c>
       <c r="J59" s="3">
-        <v>47000</v>
+        <v>46800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1987,61 +2022,61 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4919600</v>
+        <v>7238300</v>
       </c>
       <c r="E61" s="3">
-        <v>4827900</v>
+        <v>6997700</v>
       </c>
       <c r="F61" s="3">
-        <v>5409400</v>
+        <v>7194000</v>
       </c>
       <c r="G61" s="3">
-        <v>5913700</v>
+        <v>7334300</v>
       </c>
       <c r="H61" s="3">
-        <v>4280900</v>
+        <v>4262000</v>
       </c>
       <c r="I61" s="3">
-        <v>3694500</v>
+        <v>3678200</v>
       </c>
       <c r="J61" s="3">
-        <v>1201100</v>
+        <v>1195800</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>204600</v>
       </c>
       <c r="F62" s="3">
-        <v>159600</v>
+        <v>158900</v>
       </c>
       <c r="G62" s="3">
-        <v>1961000</v>
+        <v>1952300</v>
       </c>
       <c r="H62" s="3">
-        <v>1686500</v>
+        <v>1679000</v>
       </c>
       <c r="I62" s="3">
-        <v>628700</v>
+        <v>625900</v>
       </c>
       <c r="J62" s="3">
-        <v>459400</v>
+        <v>457400</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45044500</v>
+        <v>44845200</v>
       </c>
       <c r="E66" s="3">
-        <v>41429000</v>
+        <v>41245700</v>
       </c>
       <c r="F66" s="3">
-        <v>42208400</v>
+        <v>42021700</v>
       </c>
       <c r="G66" s="3">
-        <v>36605700</v>
+        <v>36443800</v>
       </c>
       <c r="H66" s="3">
-        <v>30974400</v>
+        <v>30837300</v>
       </c>
       <c r="I66" s="3">
-        <v>28291200</v>
+        <v>28166100</v>
       </c>
       <c r="J66" s="3">
-        <v>8274500</v>
+        <v>8237900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5730400</v>
+        <v>5705000</v>
       </c>
       <c r="E72" s="3">
-        <v>5166000</v>
+        <v>5143200</v>
       </c>
       <c r="F72" s="3">
-        <v>4231700</v>
+        <v>4213000</v>
       </c>
       <c r="G72" s="3">
-        <v>3806000</v>
+        <v>3789200</v>
       </c>
       <c r="H72" s="3">
-        <v>3163700</v>
+        <v>3149700</v>
       </c>
       <c r="I72" s="3">
-        <v>3782300</v>
+        <v>3765600</v>
       </c>
       <c r="J72" s="3">
-        <v>771600</v>
+        <v>768200</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6589800</v>
+        <v>6560700</v>
       </c>
       <c r="E76" s="3">
-        <v>5953600</v>
+        <v>5927300</v>
       </c>
       <c r="F76" s="3">
-        <v>4885000</v>
+        <v>4863400</v>
       </c>
       <c r="G76" s="3">
-        <v>4234200</v>
+        <v>4215500</v>
       </c>
       <c r="H76" s="3">
-        <v>3583600</v>
+        <v>3567800</v>
       </c>
       <c r="I76" s="3">
-        <v>3219200</v>
+        <v>3205000</v>
       </c>
       <c r="J76" s="3">
-        <v>1028600</v>
+        <v>1024000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1239400</v>
+        <v>1233900</v>
       </c>
       <c r="E81" s="3">
-        <v>1064500</v>
+        <v>1059800</v>
       </c>
       <c r="F81" s="3">
-        <v>936600</v>
+        <v>932500</v>
       </c>
       <c r="G81" s="3">
-        <v>723300</v>
+        <v>720100</v>
       </c>
       <c r="H81" s="3">
-        <v>465900</v>
+        <v>463900</v>
       </c>
       <c r="I81" s="3">
-        <v>629900</v>
+        <v>627100</v>
       </c>
       <c r="J81" s="3">
-        <v>214800</v>
+        <v>213900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>129200</v>
+        <v>128600</v>
       </c>
       <c r="E83" s="3">
-        <v>123300</v>
+        <v>122700</v>
       </c>
       <c r="F83" s="3">
-        <v>120100</v>
+        <v>119600</v>
       </c>
       <c r="G83" s="3">
-        <v>131400</v>
+        <v>130800</v>
       </c>
       <c r="H83" s="3">
-        <v>99500</v>
+        <v>99000</v>
       </c>
       <c r="I83" s="3">
-        <v>32900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>28400</v>
+        <v>32700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2817300</v>
+        <v>2676600</v>
       </c>
       <c r="E89" s="3">
-        <v>-441500</v>
+        <v>-439500</v>
       </c>
       <c r="F89" s="3">
-        <v>-418600</v>
+        <v>-416700</v>
       </c>
       <c r="G89" s="3">
-        <v>-552900</v>
+        <v>-550400</v>
       </c>
       <c r="H89" s="3">
-        <v>1109800</v>
+        <v>1104900</v>
       </c>
       <c r="I89" s="3">
-        <v>1085900</v>
+        <v>1081100</v>
       </c>
       <c r="J89" s="3">
-        <v>-499800</v>
+        <v>-497600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43600</v>
+        <v>-43400</v>
       </c>
       <c r="E91" s="3">
-        <v>-33400</v>
+        <v>-33200</v>
       </c>
       <c r="F91" s="3">
-        <v>-45000</v>
+        <v>-44800</v>
       </c>
       <c r="G91" s="3">
-        <v>-91400</v>
+        <v>-91000</v>
       </c>
       <c r="H91" s="3">
-        <v>-253300</v>
+        <v>-162200</v>
       </c>
       <c r="I91" s="3">
-        <v>-68400</v>
+        <v>-48900</v>
       </c>
       <c r="J91" s="3">
-        <v>-47300</v>
+        <v>-30400</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>122900</v>
+        <v>122300</v>
       </c>
       <c r="E94" s="3">
-        <v>-572200</v>
+        <v>-569600</v>
       </c>
       <c r="F94" s="3">
-        <v>-459200</v>
+        <v>-457200</v>
       </c>
       <c r="G94" s="3">
-        <v>696500</v>
+        <v>693400</v>
       </c>
       <c r="H94" s="3">
-        <v>-559600</v>
+        <v>-557100</v>
       </c>
       <c r="I94" s="3">
-        <v>-648500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-820500</v>
+        <v>-645600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-676100</v>
+        <v>-673100</v>
       </c>
       <c r="E96" s="3">
-        <v>-197900</v>
+        <v>-197000</v>
       </c>
       <c r="F96" s="3">
-        <v>-163600</v>
+        <v>-162800</v>
       </c>
       <c r="G96" s="3">
-        <v>-130100</v>
+        <v>-129500</v>
       </c>
       <c r="H96" s="3">
-        <v>-162100</v>
+        <v>-161400</v>
       </c>
       <c r="I96" s="3">
-        <v>-55600</v>
+        <v>-55300</v>
       </c>
       <c r="J96" s="3">
-        <v>-47100</v>
+        <v>-46900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-709800</v>
+        <v>-706600</v>
       </c>
       <c r="E100" s="3">
-        <v>-487900</v>
+        <v>-485800</v>
       </c>
       <c r="F100" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="G100" s="3">
-        <v>-303800</v>
+        <v>-302500</v>
       </c>
       <c r="H100" s="3">
-        <v>202500</v>
+        <v>201600</v>
       </c>
       <c r="I100" s="3">
-        <v>238900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>384600</v>
+        <v>237800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-237700</v>
+        <v>-236600</v>
       </c>
       <c r="E101" s="3">
-        <v>-137500</v>
+        <v>-136900</v>
       </c>
       <c r="F101" s="3">
-        <v>969100</v>
+        <v>964900</v>
       </c>
       <c r="G101" s="3">
-        <v>137900</v>
+        <v>137300</v>
       </c>
       <c r="H101" s="3">
-        <v>-223400</v>
+        <v>-222400</v>
       </c>
       <c r="I101" s="3">
-        <v>34400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>14500</v>
+        <v>34200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1992700</v>
+        <v>1983900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1639100</v>
+        <v>-1631900</v>
       </c>
       <c r="F102" s="3">
-        <v>107600</v>
+        <v>107200</v>
       </c>
       <c r="G102" s="3">
-        <v>-22300</v>
+        <v>-22200</v>
       </c>
       <c r="H102" s="3">
-        <v>529400</v>
+        <v>527000</v>
       </c>
       <c r="I102" s="3">
-        <v>710700</v>
+        <v>707500</v>
       </c>
       <c r="J102" s="3">
-        <v>-921300</v>
+        <v>-917200</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/BAP_YR_FIN.xlsx
+++ b/Financials/Yearly/BAP_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFA9075-423A-4BDE-AE51-EAFC8D1A2858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BAP" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BAP</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,86 +654,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3326300</v>
+        <v>3414300</v>
       </c>
       <c r="E8" s="3">
-        <v>3248600</v>
+        <v>3268500</v>
       </c>
       <c r="F8" s="3">
-        <v>2950400</v>
+        <v>3192200</v>
       </c>
       <c r="G8" s="3">
-        <v>2593600</v>
+        <v>2899100</v>
       </c>
       <c r="H8" s="3">
-        <v>2136900</v>
+        <v>2548500</v>
       </c>
       <c r="I8" s="3">
-        <v>1836900</v>
+        <v>2099800</v>
       </c>
       <c r="J8" s="3">
+        <v>1805000</v>
+      </c>
+      <c r="K8" s="3">
         <v>554200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,9 +764,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,9 +794,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,36 +898,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-126600</v>
+        <v>-127200</v>
       </c>
       <c r="E15" s="3">
-        <v>-122700</v>
+        <v>-124400</v>
       </c>
       <c r="F15" s="3">
-        <v>-120900</v>
+        <v>-120600</v>
       </c>
       <c r="G15" s="3">
-        <v>-130800</v>
+        <v>-118800</v>
       </c>
       <c r="H15" s="3">
-        <v>-135500</v>
+        <v>-128500</v>
       </c>
       <c r="I15" s="3">
-        <v>-119000</v>
+        <v>-133200</v>
       </c>
       <c r="J15" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-28300</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1431900</v>
+        <v>1352700</v>
       </c>
       <c r="E17" s="3">
-        <v>1417300</v>
+        <v>1407000</v>
       </c>
       <c r="F17" s="3">
-        <v>1329200</v>
+        <v>1392700</v>
       </c>
       <c r="G17" s="3">
-        <v>1178100</v>
+        <v>1306100</v>
       </c>
       <c r="H17" s="3">
-        <v>1009300</v>
+        <v>1157600</v>
       </c>
       <c r="I17" s="3">
-        <v>851900</v>
+        <v>991700</v>
       </c>
       <c r="J17" s="3">
+        <v>837100</v>
+      </c>
+      <c r="K17" s="3">
         <v>225100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1894400</v>
+        <v>2061500</v>
       </c>
       <c r="E18" s="3">
-        <v>1831300</v>
+        <v>1861500</v>
       </c>
       <c r="F18" s="3">
-        <v>1621200</v>
+        <v>1799400</v>
       </c>
       <c r="G18" s="3">
-        <v>1415500</v>
+        <v>1593000</v>
       </c>
       <c r="H18" s="3">
-        <v>1127700</v>
+        <v>1390900</v>
       </c>
       <c r="I18" s="3">
-        <v>985000</v>
+        <v>1108100</v>
       </c>
       <c r="J18" s="3">
+        <v>967900</v>
+      </c>
+      <c r="K18" s="3">
         <v>329100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,62 +1016,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-213300</v>
+        <v>-404500</v>
       </c>
       <c r="E20" s="3">
-        <v>-356300</v>
+        <v>-209600</v>
       </c>
       <c r="F20" s="3">
-        <v>-306200</v>
+        <v>-350100</v>
       </c>
       <c r="G20" s="3">
-        <v>-393400</v>
+        <v>-300900</v>
       </c>
       <c r="H20" s="3">
-        <v>-424200</v>
+        <v>-386500</v>
       </c>
       <c r="I20" s="3">
-        <v>-142400</v>
+        <v>-416900</v>
       </c>
       <c r="J20" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-47300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1809700</v>
+        <v>1787000</v>
       </c>
       <c r="E21" s="3">
-        <v>1597800</v>
+        <v>1778800</v>
       </c>
       <c r="F21" s="3">
-        <v>1434500</v>
+        <v>1570500</v>
       </c>
       <c r="G21" s="3">
-        <v>1152900</v>
+        <v>1410100</v>
       </c>
       <c r="H21" s="3">
-        <v>802500</v>
+        <v>1133500</v>
       </c>
       <c r="I21" s="3">
-        <v>875300</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>788900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>860300</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,63 +1103,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1681100</v>
+        <v>1657000</v>
       </c>
       <c r="E23" s="3">
-        <v>1475000</v>
+        <v>1651900</v>
       </c>
       <c r="F23" s="3">
-        <v>1314900</v>
+        <v>1449400</v>
       </c>
       <c r="G23" s="3">
-        <v>1022100</v>
+        <v>1292100</v>
       </c>
       <c r="H23" s="3">
-        <v>703400</v>
+        <v>1004300</v>
       </c>
       <c r="I23" s="3">
-        <v>842600</v>
+        <v>691200</v>
       </c>
       <c r="J23" s="3">
+        <v>828000</v>
+      </c>
+      <c r="K23" s="3">
         <v>281700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>420100</v>
+        <v>450700</v>
       </c>
       <c r="E24" s="3">
-        <v>386400</v>
+        <v>412800</v>
       </c>
       <c r="F24" s="3">
-        <v>361000</v>
+        <v>379700</v>
       </c>
       <c r="G24" s="3">
-        <v>292000</v>
+        <v>354700</v>
       </c>
       <c r="H24" s="3">
-        <v>233800</v>
+        <v>286900</v>
       </c>
       <c r="I24" s="3">
-        <v>200000</v>
+        <v>229700</v>
       </c>
       <c r="J24" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K24" s="3">
         <v>63500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1261000</v>
+        <v>1206400</v>
       </c>
       <c r="E26" s="3">
-        <v>1088600</v>
+        <v>1239100</v>
       </c>
       <c r="F26" s="3">
-        <v>953900</v>
+        <v>1069700</v>
       </c>
       <c r="G26" s="3">
-        <v>730100</v>
+        <v>937300</v>
       </c>
       <c r="H26" s="3">
-        <v>469700</v>
+        <v>717400</v>
       </c>
       <c r="I26" s="3">
-        <v>642600</v>
+        <v>461500</v>
       </c>
       <c r="J26" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K26" s="3">
         <v>218300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1233900</v>
+        <v>1180500</v>
       </c>
       <c r="E27" s="3">
-        <v>1059800</v>
+        <v>1212400</v>
       </c>
       <c r="F27" s="3">
-        <v>932500</v>
+        <v>1041400</v>
       </c>
       <c r="G27" s="3">
-        <v>720100</v>
+        <v>916300</v>
       </c>
       <c r="H27" s="3">
-        <v>463900</v>
+        <v>707500</v>
       </c>
       <c r="I27" s="3">
-        <v>627100</v>
+        <v>455800</v>
       </c>
       <c r="J27" s="3">
+        <v>616200</v>
+      </c>
+      <c r="K27" s="3">
         <v>213900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>213300</v>
+        <v>404500</v>
       </c>
       <c r="E32" s="3">
-        <v>356300</v>
+        <v>209600</v>
       </c>
       <c r="F32" s="3">
-        <v>306200</v>
+        <v>350100</v>
       </c>
       <c r="G32" s="3">
-        <v>393400</v>
+        <v>300900</v>
       </c>
       <c r="H32" s="3">
-        <v>424200</v>
+        <v>386500</v>
       </c>
       <c r="I32" s="3">
-        <v>142400</v>
+        <v>416900</v>
       </c>
       <c r="J32" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K32" s="3">
         <v>47300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1233900</v>
+        <v>1180500</v>
       </c>
       <c r="E33" s="3">
-        <v>1059800</v>
+        <v>1212400</v>
       </c>
       <c r="F33" s="3">
-        <v>932500</v>
+        <v>1041400</v>
       </c>
       <c r="G33" s="3">
-        <v>720100</v>
+        <v>916300</v>
       </c>
       <c r="H33" s="3">
-        <v>463900</v>
+        <v>707500</v>
       </c>
       <c r="I33" s="3">
-        <v>627100</v>
+        <v>455800</v>
       </c>
       <c r="J33" s="3">
+        <v>616200</v>
+      </c>
+      <c r="K33" s="3">
         <v>213900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1233900</v>
+        <v>1180500</v>
       </c>
       <c r="E35" s="3">
-        <v>1059800</v>
+        <v>1212400</v>
       </c>
       <c r="F35" s="3">
-        <v>932500</v>
+        <v>1041400</v>
       </c>
       <c r="G35" s="3">
-        <v>720100</v>
+        <v>916300</v>
       </c>
       <c r="H35" s="3">
-        <v>463900</v>
+        <v>707500</v>
       </c>
       <c r="I35" s="3">
-        <v>627100</v>
+        <v>455800</v>
       </c>
       <c r="J35" s="3">
+        <v>616200</v>
+      </c>
+      <c r="K35" s="3">
         <v>213900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,62 +1559,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7002600</v>
+        <v>13137500</v>
       </c>
       <c r="E41" s="3">
-        <v>5019500</v>
+        <v>6880900</v>
       </c>
       <c r="F41" s="3">
-        <v>6752200</v>
+        <v>4932300</v>
       </c>
       <c r="G41" s="3">
-        <v>14233800</v>
+        <v>6634900</v>
       </c>
       <c r="H41" s="3">
-        <v>6562600</v>
+        <v>13986500</v>
       </c>
       <c r="I41" s="3">
-        <v>6381500</v>
+        <v>6448600</v>
       </c>
       <c r="J41" s="3">
+        <v>6270600</v>
+      </c>
+      <c r="K41" s="3">
         <v>330100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3681000</v>
+        <v>2477700</v>
       </c>
       <c r="E42" s="3">
-        <v>4787800</v>
+        <v>3617100</v>
       </c>
       <c r="F42" s="3">
-        <v>4470600</v>
+        <v>4704600</v>
       </c>
       <c r="G42" s="3">
-        <v>2778000</v>
+        <v>4392900</v>
       </c>
       <c r="H42" s="3">
-        <v>1068700</v>
+        <v>2729700</v>
       </c>
       <c r="I42" s="3">
-        <v>3651000</v>
+        <v>1050100</v>
       </c>
       <c r="J42" s="3">
+        <v>3587500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1356500</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1589,9 +1646,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1616,9 +1676,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1643,9 +1706,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1670,90 +1736,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>213800</v>
+        <v>172500</v>
       </c>
       <c r="E47" s="3">
-        <v>211000</v>
+        <v>210000</v>
       </c>
       <c r="F47" s="3">
-        <v>190200</v>
+        <v>207300</v>
       </c>
       <c r="G47" s="3">
-        <v>49000</v>
+        <v>186900</v>
       </c>
       <c r="H47" s="3">
-        <v>19200</v>
+        <v>48200</v>
       </c>
       <c r="I47" s="3">
-        <v>17900</v>
+        <v>18900</v>
       </c>
       <c r="J47" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>593600</v>
+        <v>1007900</v>
       </c>
       <c r="E48" s="3">
-        <v>620200</v>
+        <v>583200</v>
       </c>
       <c r="F48" s="3">
-        <v>631000</v>
+        <v>609400</v>
       </c>
       <c r="G48" s="3">
-        <v>1260100</v>
+        <v>620100</v>
       </c>
       <c r="H48" s="3">
-        <v>1423000</v>
+        <v>1238200</v>
       </c>
       <c r="I48" s="3">
-        <v>785900</v>
+        <v>1398200</v>
       </c>
       <c r="J48" s="3">
+        <v>772300</v>
+      </c>
+      <c r="K48" s="3">
         <v>142500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>596700</v>
+        <v>1043000</v>
       </c>
       <c r="E49" s="3">
-        <v>591200</v>
+        <v>586400</v>
       </c>
       <c r="F49" s="3">
-        <v>573200</v>
+        <v>581000</v>
       </c>
       <c r="G49" s="3">
-        <v>998400</v>
+        <v>563200</v>
       </c>
       <c r="H49" s="3">
-        <v>748600</v>
+        <v>981000</v>
       </c>
       <c r="I49" s="3">
-        <v>813200</v>
+        <v>735600</v>
       </c>
       <c r="J49" s="3">
+        <v>799100</v>
+      </c>
+      <c r="K49" s="3">
         <v>136700</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>144800</v>
+        <v>137400</v>
       </c>
       <c r="E52" s="3">
-        <v>152600</v>
+        <v>142200</v>
       </c>
       <c r="F52" s="3">
-        <v>158200</v>
+        <v>149900</v>
       </c>
       <c r="G52" s="3">
-        <v>284800</v>
+        <v>155500</v>
       </c>
       <c r="H52" s="3">
-        <v>102700</v>
+        <v>279900</v>
       </c>
       <c r="I52" s="3">
-        <v>87200</v>
+        <v>101000</v>
       </c>
       <c r="J52" s="3">
+        <v>85600</v>
+      </c>
+      <c r="K52" s="3">
         <v>29000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51405900</v>
+        <v>52524900</v>
       </c>
       <c r="E54" s="3">
-        <v>47173000</v>
+        <v>50512600</v>
       </c>
       <c r="F54" s="3">
-        <v>46885100</v>
+        <v>46353300</v>
       </c>
       <c r="G54" s="3">
-        <v>40659300</v>
+        <v>46070300</v>
       </c>
       <c r="H54" s="3">
-        <v>34405100</v>
+        <v>39952800</v>
       </c>
       <c r="I54" s="3">
-        <v>31371000</v>
+        <v>33807300</v>
       </c>
       <c r="J54" s="3">
+        <v>30825900</v>
+      </c>
+      <c r="K54" s="3">
         <v>9261900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,35 +2007,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>636500</v>
+        <v>3344800</v>
       </c>
       <c r="E57" s="3">
-        <v>524900</v>
+        <v>625400</v>
       </c>
       <c r="F57" s="3">
-        <v>465200</v>
+        <v>515800</v>
       </c>
       <c r="G57" s="3">
-        <v>5989800</v>
+        <v>457200</v>
       </c>
       <c r="H57" s="3">
-        <v>1382000</v>
+        <v>5885700</v>
       </c>
       <c r="I57" s="3">
-        <v>1579900</v>
+        <v>1358000</v>
       </c>
       <c r="J57" s="3">
+        <v>1552400</v>
+      </c>
+      <c r="K57" s="3">
         <v>22700</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1966,36 +2064,42 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>339200</v>
+        <v>413400</v>
       </c>
       <c r="E59" s="3">
-        <v>292000</v>
+        <v>333400</v>
       </c>
       <c r="F59" s="3">
-        <v>297900</v>
+        <v>286900</v>
       </c>
       <c r="G59" s="3">
-        <v>228600</v>
+        <v>292700</v>
       </c>
       <c r="H59" s="3">
-        <v>159300</v>
+        <v>224700</v>
       </c>
       <c r="I59" s="3">
-        <v>121300</v>
+        <v>156500</v>
       </c>
       <c r="J59" s="3">
+        <v>119200</v>
+      </c>
+      <c r="K59" s="3">
         <v>46800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2020,63 +2124,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7238300</v>
+        <v>6921300</v>
       </c>
       <c r="E61" s="3">
-        <v>6997700</v>
+        <v>7112500</v>
       </c>
       <c r="F61" s="3">
-        <v>7194000</v>
+        <v>6876100</v>
       </c>
       <c r="G61" s="3">
-        <v>7334300</v>
+        <v>7069000</v>
       </c>
       <c r="H61" s="3">
-        <v>4262000</v>
+        <v>7206800</v>
       </c>
       <c r="I61" s="3">
-        <v>3678200</v>
+        <v>4187900</v>
       </c>
       <c r="J61" s="3">
+        <v>3614300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1195800</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>261900</v>
+        <v>380400</v>
       </c>
       <c r="E62" s="3">
-        <v>204600</v>
+        <v>257400</v>
       </c>
       <c r="F62" s="3">
-        <v>158900</v>
+        <v>201100</v>
       </c>
       <c r="G62" s="3">
-        <v>1952300</v>
+        <v>156200</v>
       </c>
       <c r="H62" s="3">
-        <v>1679000</v>
+        <v>1918400</v>
       </c>
       <c r="I62" s="3">
-        <v>625900</v>
+        <v>1649800</v>
       </c>
       <c r="J62" s="3">
+        <v>615000</v>
+      </c>
+      <c r="K62" s="3">
         <v>457400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44845200</v>
+        <v>45461100</v>
       </c>
       <c r="E66" s="3">
-        <v>41245700</v>
+        <v>44066000</v>
       </c>
       <c r="F66" s="3">
-        <v>42021700</v>
+        <v>40529000</v>
       </c>
       <c r="G66" s="3">
-        <v>36443800</v>
+        <v>41291500</v>
       </c>
       <c r="H66" s="3">
-        <v>30837300</v>
+        <v>35810500</v>
       </c>
       <c r="I66" s="3">
-        <v>28166100</v>
+        <v>30301500</v>
       </c>
       <c r="J66" s="3">
+        <v>27676600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8237900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5705000</v>
+        <v>6451700</v>
       </c>
       <c r="E72" s="3">
-        <v>5143200</v>
+        <v>5605900</v>
       </c>
       <c r="F72" s="3">
-        <v>4213000</v>
+        <v>5053800</v>
       </c>
       <c r="G72" s="3">
-        <v>3789200</v>
+        <v>4139800</v>
       </c>
       <c r="H72" s="3">
-        <v>3149700</v>
+        <v>3723300</v>
       </c>
       <c r="I72" s="3">
-        <v>3765600</v>
+        <v>3095000</v>
       </c>
       <c r="J72" s="3">
+        <v>3700200</v>
+      </c>
+      <c r="K72" s="3">
         <v>768200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6560700</v>
+        <v>7063800</v>
       </c>
       <c r="E76" s="3">
-        <v>5927300</v>
+        <v>6446700</v>
       </c>
       <c r="F76" s="3">
-        <v>4863400</v>
+        <v>5824300</v>
       </c>
       <c r="G76" s="3">
-        <v>4215500</v>
+        <v>4778900</v>
       </c>
       <c r="H76" s="3">
-        <v>3567800</v>
+        <v>4142300</v>
       </c>
       <c r="I76" s="3">
-        <v>3205000</v>
+        <v>3505800</v>
       </c>
       <c r="J76" s="3">
+        <v>3149300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1024000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1233900</v>
+        <v>1180500</v>
       </c>
       <c r="E81" s="3">
-        <v>1059800</v>
+        <v>1212400</v>
       </c>
       <c r="F81" s="3">
-        <v>932500</v>
+        <v>1041400</v>
       </c>
       <c r="G81" s="3">
-        <v>720100</v>
+        <v>916300</v>
       </c>
       <c r="H81" s="3">
-        <v>463900</v>
+        <v>707500</v>
       </c>
       <c r="I81" s="3">
-        <v>627100</v>
+        <v>455800</v>
       </c>
       <c r="J81" s="3">
+        <v>616200</v>
+      </c>
+      <c r="K81" s="3">
         <v>213900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>128600</v>
+        <v>129300</v>
       </c>
       <c r="E83" s="3">
-        <v>122700</v>
+        <v>126400</v>
       </c>
       <c r="F83" s="3">
-        <v>119600</v>
+        <v>120600</v>
       </c>
       <c r="G83" s="3">
-        <v>130800</v>
+        <v>117500</v>
       </c>
       <c r="H83" s="3">
-        <v>99000</v>
+        <v>128500</v>
       </c>
       <c r="I83" s="3">
-        <v>32700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>97300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2676600</v>
+        <v>-36100</v>
       </c>
       <c r="E89" s="3">
-        <v>-439500</v>
+        <v>2756100</v>
       </c>
       <c r="F89" s="3">
-        <v>-416700</v>
+        <v>-431900</v>
       </c>
       <c r="G89" s="3">
-        <v>-550400</v>
+        <v>-409500</v>
       </c>
       <c r="H89" s="3">
-        <v>1104900</v>
+        <v>-540800</v>
       </c>
       <c r="I89" s="3">
-        <v>1081100</v>
+        <v>1085700</v>
       </c>
       <c r="J89" s="3">
+        <v>1062300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-497600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43400</v>
+        <v>-53800</v>
       </c>
       <c r="E91" s="3">
-        <v>-33200</v>
+        <v>-42600</v>
       </c>
       <c r="F91" s="3">
-        <v>-44800</v>
+        <v>-32600</v>
       </c>
       <c r="G91" s="3">
-        <v>-91000</v>
+        <v>-44000</v>
       </c>
       <c r="H91" s="3">
-        <v>-162200</v>
+        <v>-89400</v>
       </c>
       <c r="I91" s="3">
-        <v>-48900</v>
+        <v>-159300</v>
       </c>
       <c r="J91" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-30400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>122300</v>
+        <v>-69400</v>
       </c>
       <c r="E94" s="3">
-        <v>-569600</v>
+        <v>120200</v>
       </c>
       <c r="F94" s="3">
-        <v>-457200</v>
+        <v>-559700</v>
       </c>
       <c r="G94" s="3">
-        <v>693400</v>
+        <v>-449300</v>
       </c>
       <c r="H94" s="3">
-        <v>-557100</v>
+        <v>681400</v>
       </c>
       <c r="I94" s="3">
-        <v>-645600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-547400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-634400</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-673100</v>
+        <v>-335000</v>
       </c>
       <c r="E96" s="3">
-        <v>-197000</v>
+        <v>-661400</v>
       </c>
       <c r="F96" s="3">
-        <v>-162800</v>
+        <v>-193600</v>
       </c>
       <c r="G96" s="3">
-        <v>-129500</v>
+        <v>-160000</v>
       </c>
       <c r="H96" s="3">
-        <v>-161400</v>
+        <v>-127200</v>
       </c>
       <c r="I96" s="3">
-        <v>-55300</v>
+        <v>-158600</v>
       </c>
       <c r="J96" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-46900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-706600</v>
+        <v>-414900</v>
       </c>
       <c r="E100" s="3">
-        <v>-485800</v>
+        <v>-694300</v>
       </c>
       <c r="F100" s="3">
-        <v>16200</v>
+        <v>-477300</v>
       </c>
       <c r="G100" s="3">
-        <v>-302500</v>
+        <v>16000</v>
       </c>
       <c r="H100" s="3">
-        <v>201600</v>
+        <v>-297200</v>
       </c>
       <c r="I100" s="3">
-        <v>237800</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>198100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-236600</v>
+        <v>208900</v>
       </c>
       <c r="E101" s="3">
-        <v>-136900</v>
+        <v>-232500</v>
       </c>
       <c r="F101" s="3">
-        <v>964900</v>
+        <v>-134600</v>
       </c>
       <c r="G101" s="3">
-        <v>137300</v>
+        <v>948100</v>
       </c>
       <c r="H101" s="3">
-        <v>-222400</v>
+        <v>134900</v>
       </c>
       <c r="I101" s="3">
-        <v>34200</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-218500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1983900</v>
+        <v>-311500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1631900</v>
+        <v>1949400</v>
       </c>
       <c r="F102" s="3">
-        <v>107200</v>
+        <v>-1603500</v>
       </c>
       <c r="G102" s="3">
-        <v>-22200</v>
+        <v>105300</v>
       </c>
       <c r="H102" s="3">
-        <v>527000</v>
+        <v>-21800</v>
       </c>
       <c r="I102" s="3">
-        <v>707500</v>
+        <v>517900</v>
       </c>
       <c r="J102" s="3">
+        <v>695200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-917200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
